--- a/biology/Médecine/Fissure_pétro-squameuse/Fissure_pétro-squameuse.xlsx
+++ b/biology/Médecine/Fissure_pétro-squameuse/Fissure_pétro-squameuse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fissure_p%C3%A9tro-squameuse</t>
+          <t>Fissure_pétro-squameuse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La fissure pétro-squameuse (ou scissure pétro-squameuse) est une suture crânienne entre la partie pétreuse médialement et l'écaille de l'os temporal latéralement.
 Un segment supérieur ou interne est visible sur la face endocrânienne de l'os temporal à l'union de l'écaille et de la partie pétreuse. Un segment postérieur ou externe est visible sur la face exocrânienne de l'os temporal à l'union de l'écaille et de la portion mastoïdienne.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fissure_p%C3%A9tro-squameuse</t>
+          <t>Fissure_pétro-squameuse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Embryologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La partie de l'écaille provient du mésenchyme à 8 semaines d'embryogenèse et la partie pétreuse se développe plus tard à partir d'un centre cartilagineux à 6 mois de développement fœtal[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La partie de l'écaille provient du mésenchyme à 8 semaines d'embryogenèse et la partie pétreuse se développe plus tard à partir d'un centre cartilagineux à 6 mois de développement fœtal.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fissure_p%C3%A9tro-squameuse</t>
+          <t>Fissure_pétro-squameuse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez certaines personnes, elle peut contenir une veine émissaire, appelée sinus pétro-squameux. Identifier cette variante anatomique avec une tomodensitométrie préopératoire peut être important pour prévenir les hémorragies dans certains types de chirurgies otorhinolaryngologique.
-Certains auteurs ont émis l'hypothèse qu'un sinus veineux persistant était le résultat d'un arrêt du développement embryologique[1].
+Certains auteurs ont émis l'hypothèse qu'un sinus veineux persistant était le résultat d'un arrêt du développement embryologique.
 </t>
         </is>
       </c>
